--- a/Test/BO/MSE_150.xlsx
+++ b/Test/BO/MSE_150.xlsx
@@ -423,34 +423,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.04561888832013265</v>
+        <v>0.009620696946579525</v>
       </c>
       <c r="B1" t="n">
-        <v>0.02428740440078747</v>
+        <v>0.03116263639964751</v>
       </c>
       <c r="C1" t="n">
-        <v>0.009005645683554176</v>
+        <v>0.009088203945899136</v>
       </c>
       <c r="D1" t="n">
-        <v>0.0306540216072371</v>
+        <v>0.02729305312041101</v>
       </c>
       <c r="E1" t="n">
-        <v>0.01275100804108048</v>
+        <v>0.01097188141491692</v>
       </c>
       <c r="F1" t="n">
-        <v>0.04843074710022308</v>
+        <v>0.01919507575550857</v>
       </c>
       <c r="G1" t="n">
-        <v>0.01655542936966359</v>
+        <v>0.01092102022561486</v>
       </c>
       <c r="H1" t="n">
-        <v>0.01406950802357694</v>
+        <v>0.02372219805318274</v>
       </c>
       <c r="I1" t="n">
-        <v>0.02780826440855835</v>
+        <v>0.04909937691879101</v>
       </c>
       <c r="J1" t="n">
-        <v>0.03813110382046646</v>
+        <v>0.01113569694670845</v>
       </c>
     </row>
   </sheetData>
